--- a/Solutions/solution_models_HP98_Fe2.xlsx
+++ b/Solutions/solution_models_HP98_Fe2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thermolab-main\Minerals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Thermolab\v_23_05_12\Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9C9D63-0A59-4743-BC57-095E5D07C715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DB70FB-7835-463D-8A34-9F03B7878774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{55A889F7-7CAF-4A87-AAEA-07BFCD9152AC}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="20" activeTab="37" xr2:uid="{55A889F7-7CAF-4A87-AAEA-07BFCD9152AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Orthopyroxene" sheetId="1" r:id="rId1"/>
@@ -42,6 +42,15 @@
     <sheet name="Epidote" sheetId="22" r:id="rId27"/>
     <sheet name="Ilmenite" sheetId="23" r:id="rId28"/>
     <sheet name="Quartz" sheetId="34" r:id="rId29"/>
+    <sheet name="Rutile" sheetId="37" r:id="rId30"/>
+    <sheet name="Andalusite" sheetId="38" r:id="rId31"/>
+    <sheet name="Kyanite" sheetId="39" r:id="rId32"/>
+    <sheet name="Sillimanite" sheetId="40" r:id="rId33"/>
+    <sheet name="Lime" sheetId="41" r:id="rId34"/>
+    <sheet name="Lawsonite" sheetId="42" r:id="rId35"/>
+    <sheet name="Zoisite" sheetId="43" r:id="rId36"/>
+    <sheet name="Periclase" sheetId="44" r:id="rId37"/>
+    <sheet name="Corundum" sheetId="45" r:id="rId38"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="208">
   <si>
     <t>M1</t>
   </si>
@@ -659,6 +668,33 @@
   </si>
   <si>
     <t>q,tc-ds55</t>
+  </si>
+  <si>
+    <t>per,tc-ds55</t>
+  </si>
+  <si>
+    <t>ru,tc-ds55</t>
+  </si>
+  <si>
+    <t>and,tc-ds55</t>
+  </si>
+  <si>
+    <t>ky,tc-ds55</t>
+  </si>
+  <si>
+    <t>sill,tc-ds55</t>
+  </si>
+  <si>
+    <t>lime,tc-ds55</t>
+  </si>
+  <si>
+    <t>law,tc-ds55</t>
+  </si>
+  <si>
+    <t>zo,tc-ds55</t>
+  </si>
+  <si>
+    <t>cor,tc-ds55</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1049,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1023,20 +1059,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FAD609-BFE4-4989-8D42-7B6F6A555D68}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:F15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -1044,7 +1080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -1064,7 +1100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1084,7 +1120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -1104,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -1124,7 +1160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>104</v>
       </c>
@@ -1144,7 +1180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>105</v>
       </c>
@@ -1167,7 +1203,7 @@
       <c r="H9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1177,7 +1213,7 @@
       <c r="H10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -1200,12 +1236,12 @@
       <c r="H11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>109</v>
       </c>
@@ -1228,7 +1264,7 @@
       <c r="H13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -1251,7 +1287,7 @@
       <c r="H14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>111</v>
       </c>
@@ -1279,7 +1315,7 @@
       <c r="H15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -1302,7 +1338,7 @@
       <c r="H16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1319,7 +1355,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -1336,7 +1372,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -1353,7 +1389,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -1370,7 +1406,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -1400,14 +1436,14 @@
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -1415,7 +1451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -1435,7 +1471,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1455,7 +1491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>125</v>
       </c>
@@ -1475,7 +1511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>126</v>
       </c>
@@ -1495,7 +1531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>127</v>
       </c>
@@ -1515,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>128</v>
       </c>
@@ -1535,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -1555,7 +1591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>109</v>
       </c>
@@ -1575,7 +1611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -1595,7 +1631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>111</v>
       </c>
@@ -1615,7 +1651,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -1635,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1652,7 +1688,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1669,7 +1705,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1686,7 +1722,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1703,7 +1739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1720,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1737,7 +1773,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1754,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1771,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1788,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1805,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1822,7 +1858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -1839,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1856,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -1873,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -1890,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -1907,7 +1943,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1924,7 +1960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1941,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -1971,12 +2007,12 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -1984,7 +2020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -2019,7 +2055,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2054,7 +2090,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -2089,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -2124,7 +2160,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>131</v>
       </c>
@@ -2159,7 +2195,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>132</v>
       </c>
@@ -2194,7 +2230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>133</v>
       </c>
@@ -2229,7 +2265,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2241,7 +2277,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -2276,7 +2312,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>109</v>
       </c>
@@ -2311,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>110</v>
       </c>
@@ -2346,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -2391,7 +2427,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -2426,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -2446,7 +2482,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -2467,7 +2503,7 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2488,7 +2524,7 @@
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -2509,7 +2545,7 @@
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2530,7 +2566,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2551,7 +2587,7 @@
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -2560,7 +2596,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2569,7 +2605,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -2578,7 +2614,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -2587,7 +2623,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -2596,7 +2632,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2605,7 +2641,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -2614,7 +2650,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2623,7 +2659,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2632,7 +2668,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2641,7 +2677,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -2650,7 +2686,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -2659,7 +2695,7 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -2668,7 +2704,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -2677,7 +2713,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -2686,7 +2722,7 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -2695,7 +2731,7 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -2717,9 +2753,9 @@
       <selection activeCell="A11" sqref="A11:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -2727,7 +2763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -2738,7 +2774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2749,7 +2785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -2760,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>137</v>
       </c>
@@ -2771,7 +2807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -2782,7 +2818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>109</v>
       </c>
@@ -2793,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -2804,7 +2840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>111</v>
       </c>
@@ -2815,7 +2851,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>124</v>
       </c>
@@ -2826,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -2837,7 +2873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2848,7 +2884,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2872,9 +2908,9 @@
       <selection activeCell="B15" sqref="B15:J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -2882,7 +2918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -2914,7 +2950,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2946,7 +2982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>138</v>
       </c>
@@ -2979,7 +3015,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>139</v>
       </c>
@@ -3011,7 +3047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>140</v>
       </c>
@@ -3043,7 +3079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>141</v>
       </c>
@@ -3075,7 +3111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -3107,7 +3143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>109</v>
       </c>
@@ -3139,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -3171,48 +3207,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>111</v>
       </c>
       <c r="B15" s="7">
-        <f>1/6</f>
+        <f t="shared" ref="B15:J15" si="0">1/6</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="C15" s="7">
-        <f>1/6</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="D15" s="7">
-        <f>1/6</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="E15" s="7">
-        <f>1/6</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="F15" s="7">
-        <f>1/6</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="G15" s="7">
-        <f>1/6</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="H15" s="7">
-        <f>1/6</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="I15" s="7">
-        <f>1/6</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="J15" s="7">
-        <f>1/6</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -3244,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -3261,7 +3297,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -3278,7 +3314,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -3295,7 +3331,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -3312,7 +3348,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -3342,12 +3378,12 @@
       <selection activeCell="B16" sqref="B16:L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -3355,7 +3391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -3393,7 +3429,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3431,7 +3467,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>142</v>
       </c>
@@ -3469,7 +3505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>143</v>
       </c>
@@ -3507,7 +3543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>144</v>
       </c>
@@ -3545,7 +3581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>145</v>
       </c>
@@ -3583,7 +3619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>146</v>
       </c>
@@ -3621,7 +3657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3634,7 +3670,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -3672,7 +3708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>109</v>
       </c>
@@ -3710,7 +3746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>110</v>
       </c>
@@ -3748,56 +3784,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>111</v>
       </c>
       <c r="B16" s="7">
-        <f>1/6</f>
+        <f t="shared" ref="B16:L16" si="0">1/6</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="C16" s="7">
-        <f>1/6</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="D16" s="7">
-        <f>1/6</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="E16" s="7">
-        <f>1/6</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="F16" s="7">
-        <f>1/6</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="G16" s="7">
-        <f>1/6</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="H16" s="7">
-        <f>1/6</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="I16" s="7">
-        <f>1/6</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="J16" s="7">
-        <f>1/6</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="K16" s="7">
-        <f>1/6</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="L16" s="7">
-        <f>1/6</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -3835,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -3855,7 +3891,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -3875,7 +3911,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -3895,7 +3931,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -3915,7 +3951,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -3935,7 +3971,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -3955,7 +3991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -3975,7 +4011,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -3995,7 +4031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -4015,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -4048,9 +4084,9 @@
       <selection activeCell="A10" sqref="A10:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -4058,7 +4094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -4072,7 +4108,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4086,7 +4122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>147</v>
       </c>
@@ -4100,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>148</v>
       </c>
@@ -4114,7 +4150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>149</v>
       </c>
@@ -4128,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -4142,7 +4178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -4156,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>110</v>
       </c>
@@ -4170,7 +4206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -4184,7 +4220,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -4198,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -4212,7 +4248,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -4226,7 +4262,7 @@
         <v>25100</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -4240,7 +4276,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -4254,7 +4290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -4268,7 +4304,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -4282,7 +4318,7 @@
         <v>-10.8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -4296,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -4310,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -4324,7 +4360,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>72</v>
       </c>
@@ -4338,7 +4374,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -4352,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -4366,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -4380,7 +4416,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -4394,7 +4430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -4408,7 +4444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -4435,12 +4471,12 @@
       <selection activeCell="B15" sqref="B15:I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -4448,7 +4484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -4477,7 +4513,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4506,11 +4542,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -4541,7 +4577,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>151</v>
       </c>
@@ -4572,7 +4608,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -4603,7 +4639,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>153</v>
       </c>
@@ -4632,7 +4668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -4661,7 +4697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>109</v>
       </c>
@@ -4690,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -4719,7 +4755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>111</v>
       </c>
@@ -4756,7 +4792,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -4785,7 +4821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -4802,7 +4838,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -4819,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -4836,7 +4872,7 @@
         <v>52000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -4853,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -4870,7 +4906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -4887,7 +4923,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -4904,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -4921,7 +4957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -4938,7 +4974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -4955,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -4972,7 +5008,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -4989,7 +5025,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -5006,7 +5042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -5023,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -5040,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -5057,7 +5093,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -5074,7 +5110,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -5091,7 +5127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -5121,9 +5157,9 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -5131,7 +5167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -5163,7 +5199,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -5195,7 +5231,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -5227,7 +5263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -5259,7 +5295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -5291,7 +5327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>157</v>
       </c>
@@ -5323,7 +5359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -5355,7 +5391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>109</v>
       </c>
@@ -5387,7 +5423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -5419,48 +5455,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>111</v>
       </c>
       <c r="B15" s="7">
-        <f>1/6</f>
+        <f t="shared" ref="B15:J15" si="0">1/6</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="C15" s="7">
-        <f>1/6</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="D15" s="7">
-        <f>1/6</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="E15" s="7">
-        <f>1/6</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="F15" s="7">
-        <f>1/6</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="G15" s="7">
-        <f>1/6</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="H15" s="7">
-        <f>1/6</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="I15" s="7">
-        <f>1/6</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="J15" s="7">
-        <f>1/6</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -5492,10 +5528,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -5513,7 +5549,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -5530,7 +5566,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -5547,7 +5583,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -5565,7 +5601,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -5583,28 +5619,28 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H24" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H32" s="1"/>
     </row>
   </sheetData>
@@ -5620,12 +5656,12 @@
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -5633,7 +5669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -5647,7 +5683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -5661,7 +5697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>158</v>
       </c>
@@ -5675,7 +5711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>159</v>
       </c>
@@ -5689,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>160</v>
       </c>
@@ -5703,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -5717,7 +5753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -5731,7 +5767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>110</v>
       </c>
@@ -5745,7 +5781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -5759,7 +5795,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -5773,7 +5809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -5787,7 +5823,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -5801,7 +5837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -5815,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -5842,9 +5878,9 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -5852,7 +5888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -5866,7 +5902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -5880,7 +5916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>161</v>
       </c>
@@ -5894,7 +5930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>162</v>
       </c>
@@ -5908,7 +5944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>163</v>
       </c>
@@ -5922,7 +5958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -5936,7 +5972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -5950,7 +5986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>110</v>
       </c>
@@ -5964,7 +6000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -5978,7 +6014,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -5992,7 +6028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -6006,7 +6042,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -6020,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -6034,7 +6070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -6061,12 +6097,12 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -6074,7 +6110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -6088,7 +6124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -6102,7 +6138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -6116,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -6130,7 +6166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -6144,7 +6180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -6160,11 +6196,11 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -6180,7 +6216,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>110</v>
       </c>
@@ -6196,7 +6232,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -6212,7 +6248,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -6226,11 +6262,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -6244,7 +6280,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>106</v>
       </c>
@@ -6258,7 +6294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>107</v>
       </c>
@@ -6272,7 +6308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>108</v>
       </c>
@@ -6286,7 +6322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -6300,7 +6336,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -6314,7 +6350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -6328,7 +6364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -6342,7 +6378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -6356,7 +6392,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -6370,7 +6406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -6384,7 +6420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>108</v>
       </c>
@@ -6398,7 +6434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -6412,7 +6448,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -6426,7 +6462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -6440,7 +6476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -6467,9 +6503,9 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -6477,7 +6513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -6497,7 +6533,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -6517,7 +6553,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>164</v>
       </c>
@@ -6537,7 +6573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>165</v>
       </c>
@@ -6557,7 +6593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>166</v>
       </c>
@@ -6577,7 +6613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>167</v>
       </c>
@@ -6597,7 +6633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -6617,7 +6653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>109</v>
       </c>
@@ -6637,7 +6673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -6657,7 +6693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>111</v>
       </c>
@@ -6677,7 +6713,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -6710,12 +6746,12 @@
       <selection activeCell="A12" sqref="A12:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -6723,7 +6759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -6749,7 +6785,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -6775,10 +6811,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -6806,7 +6842,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>169</v>
       </c>
@@ -6833,7 +6869,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>170</v>
       </c>
@@ -6861,7 +6897,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -6870,7 +6906,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -6896,10 +6932,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -6925,7 +6961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>110</v>
       </c>
@@ -6951,7 +6987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -6977,7 +7013,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -7016,9 +7052,9 @@
       <selection activeCell="A11" sqref="A11:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -7026,7 +7062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -7037,7 +7073,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -7048,7 +7084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>171</v>
       </c>
@@ -7059,7 +7095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>172</v>
       </c>
@@ -7070,7 +7106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -7081,7 +7117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>109</v>
       </c>
@@ -7092,7 +7128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -7103,7 +7139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>111</v>
       </c>
@@ -7114,7 +7150,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>124</v>
       </c>
@@ -7138,9 +7174,9 @@
       <selection activeCell="A12" sqref="A12:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -7148,7 +7184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -7174,7 +7210,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -7200,10 +7236,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>173</v>
       </c>
@@ -7230,7 +7266,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>174</v>
       </c>
@@ -7257,7 +7293,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>175</v>
       </c>
@@ -7284,7 +7320,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -7293,7 +7329,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -7319,10 +7355,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -7348,7 +7384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>110</v>
       </c>
@@ -7374,7 +7410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -7400,7 +7436,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -7439,12 +7475,12 @@
       <selection activeCell="A11" sqref="A11:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -7452,7 +7488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -7463,7 +7499,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -7474,7 +7510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>176</v>
       </c>
@@ -7485,7 +7521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>177</v>
       </c>
@@ -7496,7 +7532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -7507,7 +7543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>109</v>
       </c>
@@ -7518,7 +7554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -7529,7 +7565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>111</v>
       </c>
@@ -7540,7 +7576,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>124</v>
       </c>
@@ -7551,7 +7587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -7562,7 +7598,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -7573,7 +7609,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -7597,9 +7633,9 @@
       <selection activeCell="A11" sqref="A11:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -7607,7 +7643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -7618,7 +7654,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -7629,7 +7665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>178</v>
       </c>
@@ -7640,7 +7676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>179</v>
       </c>
@@ -7651,7 +7687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -7662,7 +7698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>109</v>
       </c>
@@ -7673,7 +7709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -7684,7 +7720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>111</v>
       </c>
@@ -7695,7 +7731,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>124</v>
       </c>
@@ -7706,7 +7742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -7717,7 +7753,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -7728,7 +7764,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -7752,13 +7788,13 @@
       <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -7766,7 +7802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -7801,7 +7837,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -7836,8 +7872,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>122</v>
       </c>
@@ -7872,7 +7908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>180</v>
       </c>
@@ -7907,7 +7943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>181</v>
       </c>
@@ -7942,7 +7978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -7977,7 +8013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>182</v>
       </c>
@@ -8012,7 +8048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>121</v>
       </c>
@@ -8047,7 +8083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>120</v>
       </c>
@@ -8082,7 +8118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>183</v>
       </c>
@@ -8117,7 +8153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -8129,7 +8165,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>114</v>
       </c>
@@ -8164,7 +8200,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>109</v>
       </c>
@@ -8199,7 +8235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>110</v>
       </c>
@@ -8234,7 +8270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -8279,7 +8315,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>124</v>
       </c>
@@ -8314,7 +8350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -8343,7 +8379,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -8372,7 +8408,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>89</v>
       </c>
@@ -8401,7 +8437,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>90</v>
       </c>
@@ -8430,7 +8466,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>86</v>
       </c>
@@ -8459,7 +8495,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>92</v>
       </c>
@@ -8488,7 +8524,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -8517,7 +8553,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -8546,7 +8582,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -8575,7 +8611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -8604,7 +8640,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>82</v>
       </c>
@@ -8633,7 +8669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -8662,7 +8698,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -8691,7 +8727,7 @@
         <v>-450</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -8720,7 +8756,7 @@
         <v>-850</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>92</v>
       </c>
@@ -8749,7 +8785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -8778,7 +8814,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -8807,7 +8843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -8850,9 +8886,9 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -8860,7 +8896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -8871,7 +8907,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -8882,7 +8918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>184</v>
       </c>
@@ -8893,7 +8929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -8904,7 +8940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>109</v>
       </c>
@@ -8915,7 +8951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -8926,7 +8962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>111</v>
       </c>
@@ -8937,7 +8973,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -8948,7 +8984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -8957,7 +8993,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>94</v>
       </c>
@@ -8967,11 +9003,11 @@
       <c r="C16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
     </row>
   </sheetData>
@@ -8987,9 +9023,9 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -8997,7 +9033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -9014,7 +9050,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -9031,7 +9067,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>185</v>
       </c>
@@ -9048,7 +9084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>186</v>
       </c>
@@ -9065,7 +9101,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -9082,7 +9118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>109</v>
       </c>
@@ -9099,7 +9135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -9116,7 +9152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>111</v>
       </c>
@@ -9133,7 +9169,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>124</v>
       </c>
@@ -9150,7 +9186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -9161,7 +9197,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>96</v>
       </c>
@@ -9173,7 +9209,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -9185,7 +9221,7 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -9196,7 +9232,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>96</v>
       </c>
@@ -9208,7 +9244,7 @@
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -9232,9 +9268,9 @@
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -9242,7 +9278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -9250,7 +9286,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -9258,7 +9294,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>198</v>
       </c>
@@ -9266,7 +9302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -9274,7 +9310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>109</v>
       </c>
@@ -9282,7 +9318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -9290,7 +9326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>111</v>
       </c>
@@ -9298,7 +9334,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -9306,22 +9342,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D21" s="2"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
     </row>
   </sheetData>
@@ -9337,12 +9373,12 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -9350,7 +9386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -9361,7 +9397,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -9372,7 +9408,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>195</v>
       </c>
@@ -9383,7 +9419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>119</v>
       </c>
@@ -9397,7 +9433,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -9411,12 +9447,12 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>109</v>
       </c>
@@ -9427,7 +9463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -9438,7 +9474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>111</v>
       </c>
@@ -9450,7 +9486,7 @@
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>124</v>
       </c>
@@ -9461,13 +9497,814 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219FAF54-274E-4CBD-B2F5-6FF83ECBFF49}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308E4F04-B0A8-4CBD-ABBB-610BD96A9E69}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD971B70-4758-4064-96FB-834E00C29227}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47BDDB4-52BE-4B5D-806D-59CD6A5DB63C}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7000EB-CDC8-4F9E-BA3A-6BA876B71ECD}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF0AD33-C861-46BD-B659-B9638157A7BF}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E57C9F-1CDC-4203-BD72-0F985F0E3A67}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A54D62E-BBF7-405B-BAE6-9A57CB5648F1}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C397D4D-E119-4B5F-856E-C56F35E827FA}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9482,12 +10319,12 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -9495,7 +10332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -9515,7 +10352,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -9535,7 +10372,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -9555,7 +10392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>116</v>
       </c>
@@ -9575,7 +10412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>118</v>
       </c>
@@ -9595,7 +10432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -9615,7 +10452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>119</v>
       </c>
@@ -9638,7 +10475,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -9661,12 +10498,12 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>109</v>
       </c>
@@ -9686,7 +10523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>110</v>
       </c>
@@ -9706,7 +10543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -9731,7 +10568,7 @@
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -9751,11 +10588,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
@@ -9772,12 +10609,12 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -9785,7 +10622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -9799,7 +10636,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -9813,7 +10650,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>187</v>
       </c>
@@ -9827,7 +10664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>196</v>
       </c>
@@ -9841,7 +10678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>119</v>
       </c>
@@ -9858,7 +10695,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -9875,12 +10712,12 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -9894,7 +10731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>110</v>
       </c>
@@ -9908,7 +10745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -9923,7 +10760,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -9937,11 +10774,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
@@ -9958,12 +10795,12 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -9971,7 +10808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -9991,7 +10828,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -10011,7 +10848,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>187</v>
       </c>
@@ -10031,7 +10868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>188</v>
       </c>
@@ -10051,7 +10888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>189</v>
       </c>
@@ -10071,7 +10908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>190</v>
       </c>
@@ -10091,7 +10928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>119</v>
       </c>
@@ -10114,7 +10951,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -10137,12 +10974,12 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>109</v>
       </c>
@@ -10162,7 +10999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>110</v>
       </c>
@@ -10182,7 +11019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -10207,7 +11044,7 @@
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -10227,11 +11064,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
@@ -10248,12 +11085,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -10261,7 +11098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -10275,7 +11112,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -10289,7 +11126,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>193</v>
       </c>
@@ -10303,7 +11140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>194</v>
       </c>
@@ -10317,7 +11154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>119</v>
       </c>
@@ -10331,7 +11168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -10345,7 +11182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -10362,7 +11199,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>110</v>
       </c>
@@ -10376,7 +11213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -10396,7 +11233,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -10413,11 +11250,11 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="22" spans="10:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="10:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
@@ -10434,9 +11271,9 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>134</v>
       </c>
@@ -10444,7 +11281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -10455,7 +11292,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -10466,7 +11303,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -10477,7 +11314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>119</v>
       </c>
@@ -10488,7 +11325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -10499,7 +11336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>109</v>
       </c>
@@ -10510,7 +11347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -10521,7 +11358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>111</v>
       </c>
@@ -10532,7 +11369,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>124</v>
       </c>
@@ -10543,7 +11380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -10554,7 +11391,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -10565,7 +11402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -10576,7 +11413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -10587,7 +11424,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -10598,7 +11435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>78</v>
       </c>
@@ -10609,7 +11446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -10620,7 +11457,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -10631,7 +11468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -10642,7 +11479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -10653,7 +11490,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -10664,7 +11501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -10675,7 +11512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -10697,12 +11534,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -10710,7 +11547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -10727,7 +11564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -10744,12 +11581,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>120</v>
       </c>
@@ -10769,7 +11606,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -10786,7 +11623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -10803,7 +11640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -10820,7 +11657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -10837,7 +11674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>109</v>
       </c>
@@ -10854,7 +11691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -10871,7 +11708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>111</v>
       </c>
@@ -10890,7 +11727,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -10909,11 +11746,11 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -10930,7 +11767,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -10947,7 +11784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -10964,7 +11801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -10981,7 +11818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -10998,7 +11835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -11015,7 +11852,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -11032,7 +11869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -11050,7 +11887,7 @@
       </c>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -11067,7 +11904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -11084,7 +11921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -11101,7 +11938,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>83</v>
       </c>
@@ -11118,7 +11955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>84</v>
       </c>
@@ -11135,7 +11972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>82</v>
       </c>
@@ -11152,7 +11989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -11169,7 +12006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -11186,7 +12023,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -11203,7 +12040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -11220,7 +12057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
